--- a/fgt-tables/fgt_anos_estudo_sm.xlsx
+++ b/fgt-tables/fgt_anos_estudo_sm.xlsx
@@ -379,10 +379,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1210578948028312</v>
+        <v>0.1107347873458729</v>
       </c>
       <c r="C2">
-        <v>0.002284324744997024</v>
+        <v>0.002963102129239998</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1326764399175886</v>
+        <v>0.1083567004529865</v>
       </c>
       <c r="C3">
-        <v>0.0031056979522105</v>
+        <v>0.004622912605492059</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +401,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.147398359251137</v>
+        <v>0.1485795941839451</v>
       </c>
       <c r="C4">
-        <v>0.003619469239862016</v>
+        <v>0.006271020377991782</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +412,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1385308714057736</v>
+        <v>0.1289683709053842</v>
       </c>
       <c r="C5">
-        <v>0.002791129633910356</v>
+        <v>0.004390728359529309</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +423,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1220899284091344</v>
+        <v>0.1141505906909202</v>
       </c>
       <c r="C6">
-        <v>0.002464428546570069</v>
+        <v>0.003865649338470934</v>
       </c>
     </row>
     <row r="7">
@@ -434,10 +434,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0970335046183344</v>
+        <v>0.08881377923530995</v>
       </c>
       <c r="C7">
-        <v>0.001728201677371201</v>
+        <v>0.002320661495375664</v>
       </c>
     </row>
     <row r="8">
@@ -445,10 +445,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1198672129765233</v>
+        <v>0.1053537721735222</v>
       </c>
       <c r="C8">
-        <v>0.002142397532948156</v>
+        <v>0.003165548984939699</v>
       </c>
     </row>
     <row r="9">
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1228276231065163</v>
+        <v>0.1024397145447982</v>
       </c>
       <c r="C9">
-        <v>0.002624091993490206</v>
+        <v>0.003680580466326826</v>
       </c>
     </row>
     <row r="10">
@@ -467,10 +467,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1200184916042872</v>
+        <v>0.1204626652402094</v>
       </c>
       <c r="C10">
-        <v>0.002444945511661167</v>
+        <v>0.004348121178377174</v>
       </c>
     </row>
     <row r="11">
@@ -478,10 +478,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.09126721057424604</v>
+        <v>0.087012011814698</v>
       </c>
       <c r="C11">
-        <v>0.001818029069293834</v>
+        <v>0.002768563509938212</v>
       </c>
     </row>
     <row r="12">
@@ -489,10 +489,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1059214813350533</v>
+        <v>0.1109629117556986</v>
       </c>
       <c r="C12">
-        <v>0.00278781922900107</v>
+        <v>0.005255189037102348</v>
       </c>
     </row>
     <row r="13">
@@ -500,10 +500,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0912664690030761</v>
+        <v>0.08967683167747147</v>
       </c>
       <c r="C13">
-        <v>0.002459268355183496</v>
+        <v>0.004505177581272245</v>
       </c>
     </row>
     <row r="14">
@@ -511,10 +511,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.05284862681404948</v>
+        <v>0.05684914770648251</v>
       </c>
       <c r="C14">
-        <v>0.001082842751187499</v>
+        <v>0.001574011809895996</v>
       </c>
     </row>
     <row r="15">
@@ -522,10 +522,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02766252653875782</v>
+        <v>0.0344867488216372</v>
       </c>
       <c r="C15">
-        <v>0.001736416903746624</v>
+        <v>0.003384938834018292</v>
       </c>
     </row>
     <row r="16">
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01824592097201271</v>
+        <v>0.02195892201312042</v>
       </c>
       <c r="C16">
-        <v>0.00188254863326801</v>
+        <v>0.004233570638743381</v>
       </c>
     </row>
     <row r="17">
@@ -544,10 +544,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01959978543666647</v>
+        <v>0.02519286730819209</v>
       </c>
       <c r="C17">
-        <v>0.001768050399547264</v>
+        <v>0.003756915556105885</v>
       </c>
     </row>
     <row r="18">
@@ -555,10 +555,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.008588676991904064</v>
+        <v>0.01047644067705286</v>
       </c>
       <c r="C18">
-        <v>0.0005122306928981393</v>
+        <v>0.0008286599694801097</v>
       </c>
     </row>
   </sheetData>
